--- a/Example data/events.xlsx
+++ b/Example data/events.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arto/Library/CloudStorage/GoogleDrive-arto.pesola@gmail.com/.shortcut-targets-by-id/0B6RQpUpPXpVjeHIyaGt1QVk0QTg/Fibion Tech/FibionFlow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arto/Documents/GitHub/FibionFlow/Example data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531476C8-6789-BD4F-A6DE-F0EFA671C92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B4357F-34F4-944D-A4D5-04872FB7BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15860" yWindow="1160" windowWidth="25380" windowHeight="15200" xr2:uid="{8713430B-C13E-42BC-A5AB-AB8E782BE479}"/>
+    <workbookView xWindow="24600" yWindow="1580" windowWidth="25380" windowHeight="15200" xr2:uid="{8713430B-C13E-42BC-A5AB-AB8E782BE479}"/>
   </bookViews>
   <sheets>
     <sheet name="ID01.csv" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>event</t>
   </si>
@@ -85,15 +85,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -122,7 +119,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -473,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8758787B-5FF5-45C2-B053-D3D45E0EEF81}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -486,7 +483,7 @@
     <col min="8" max="8" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,116 +493,109 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>44295.395833333336</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44295.583333333336</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="3">
+        <v>44315.333333333336</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44315.5</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>44296.375</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44296.583333333336</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>44316.333333333336</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44316.5</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>44297.333333333336</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44297.583333333336</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>44319.416666666664</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44319.583333333336</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>44298.333333333336</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44298.541666666664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>44320.333333333336</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44320.541666666664</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>44299.375</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44299.666666666664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>44321.333333333336</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44321.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>44295.666666666664</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44295.708333333336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>44316.729166666664</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44316.770833333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
-        <v>44298.625</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44298.6875</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>44320.708333333336</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44320.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="4"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -615,10 +605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE89C204-4F63-4285-8DBA-FF6CBDB6FF24}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -626,7 +616,7 @@
     <col min="2" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,70 +627,86 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>44295.375</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44295.541666666664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3">
+        <v>44315.333333333336</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44315.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>44296.375</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44296.583333333336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>44316.333333333336</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44316.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>44297.333333333336</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44297.583333333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>44319.416666666664</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44319.583333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>44298.416666666664</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44298.666666666664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>44320.333333333336</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44320.541666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>44299.375</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44299.666666666664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B6" s="3">
+        <v>44321.333333333336</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44321.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44315.604166666664</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44315.666666666664</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44320.645833333336</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44320.708333333336</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -972,9 +978,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3BD523-F483-403A-8733-B40615BD28FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3BD523-F483-403A-8733-B40615BD28FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1311f76-c012-40c0-925f-3fd08308c3d3"/>
+    <ds:schemaRef ds:uri="2783add9-2d57-44e9-aa3c-28b175d52215"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F412CA-E2CE-4CAE-8BE6-39B1804B8D28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F412CA-E2CE-4CAE-8BE6-39B1804B8D28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>